--- a/Code/Results/Cases/Case_4_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_228/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.979239262630096</v>
+        <v>1.021541367123396</v>
       </c>
       <c r="D2">
-        <v>1.001231006015693</v>
+        <v>1.026422218762465</v>
       </c>
       <c r="E2">
-        <v>0.9875622135271406</v>
+        <v>1.025161480254848</v>
       </c>
       <c r="F2">
-        <v>0.9549573928610106</v>
+        <v>1.019974042732294</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035169216941636</v>
+        <v>1.028091854196729</v>
       </c>
       <c r="J2">
-        <v>1.002059165048621</v>
+        <v>1.026732252662637</v>
       </c>
       <c r="K2">
-        <v>1.012673217569541</v>
+        <v>1.029244911995427</v>
       </c>
       <c r="L2">
-        <v>0.9991975898864708</v>
+        <v>1.027987861329245</v>
       </c>
       <c r="M2">
-        <v>0.9670820760658703</v>
+        <v>1.022815702210854</v>
       </c>
       <c r="N2">
-        <v>1.003482204000783</v>
+        <v>1.028190330229254</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9852322270040452</v>
+        <v>1.0227416582334</v>
       </c>
       <c r="D3">
-        <v>1.005584421638179</v>
+        <v>1.027302958779511</v>
       </c>
       <c r="E3">
-        <v>0.9930157291917138</v>
+        <v>1.026309295284918</v>
       </c>
       <c r="F3">
-        <v>0.96381832004784</v>
+        <v>1.021817059437145</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036530951214985</v>
+        <v>1.028285991724038</v>
       </c>
       <c r="J3">
-        <v>1.00613373563227</v>
+        <v>1.027568902122241</v>
       </c>
       <c r="K3">
-        <v>1.016146343945659</v>
+        <v>1.029932964539345</v>
       </c>
       <c r="L3">
-        <v>1.003738762031426</v>
+        <v>1.02894199585776</v>
       </c>
       <c r="M3">
-        <v>0.9749360866543145</v>
+        <v>1.024462013769011</v>
       </c>
       <c r="N3">
-        <v>1.007562560942021</v>
+        <v>1.029028167827055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9890021472268773</v>
+        <v>1.023517449535878</v>
       </c>
       <c r="D4">
-        <v>1.008324622075657</v>
+        <v>1.027871857132009</v>
       </c>
       <c r="E4">
-        <v>0.9964518807846775</v>
+        <v>1.027051514385379</v>
       </c>
       <c r="F4">
-        <v>0.9693767101516728</v>
+        <v>1.023008430115822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037374635373446</v>
+        <v>1.028409832110904</v>
       </c>
       <c r="J4">
-        <v>1.008691425346164</v>
+        <v>1.02810892762239</v>
       </c>
       <c r="K4">
-        <v>1.018323603881474</v>
+        <v>1.03037655236141</v>
       </c>
       <c r="L4">
-        <v>1.006593317955727</v>
+        <v>1.029558321532134</v>
       </c>
       <c r="M4">
-        <v>0.9798593442076925</v>
+        <v>1.025525699315718</v>
       </c>
       <c r="N4">
-        <v>1.010123882868679</v>
+        <v>1.029568960225357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9905625132634405</v>
+        <v>1.02384338607786</v>
       </c>
       <c r="D5">
-        <v>1.009459087372092</v>
+        <v>1.028110784678137</v>
       </c>
       <c r="E5">
-        <v>0.9978753910973771</v>
+        <v>1.027363428223793</v>
       </c>
       <c r="F5">
-        <v>0.9716741186623417</v>
+        <v>1.023509010408098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037720680141867</v>
+        <v>1.028461469200465</v>
       </c>
       <c r="J5">
-        <v>1.009748721565999</v>
+        <v>1.028335635680955</v>
       </c>
       <c r="K5">
-        <v>1.019222903410237</v>
+        <v>1.030562648853155</v>
       </c>
       <c r="L5">
-        <v>1.007774280255934</v>
+        <v>1.029817173258698</v>
       </c>
       <c r="M5">
-        <v>0.9818933457709508</v>
+        <v>1.025972502796357</v>
       </c>
       <c r="N5">
-        <v>1.011182680570421</v>
+        <v>1.029795990235368</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9908231050999834</v>
+        <v>1.023898100283504</v>
       </c>
       <c r="D6">
-        <v>1.009648565727967</v>
+        <v>1.028150887803256</v>
       </c>
       <c r="E6">
-        <v>0.9981132016753016</v>
+        <v>1.027415793274114</v>
       </c>
       <c r="F6">
-        <v>0.972057628301535</v>
+        <v>1.023593044430947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037778284892845</v>
+        <v>1.028470114366826</v>
       </c>
       <c r="J6">
-        <v>1.009925218514098</v>
+        <v>1.028373682355189</v>
       </c>
       <c r="K6">
-        <v>1.01937298121097</v>
+        <v>1.030593872587168</v>
       </c>
       <c r="L6">
-        <v>1.007971476692101</v>
+        <v>1.029860620934364</v>
       </c>
       <c r="M6">
-        <v>0.9822328306114132</v>
+        <v>1.026047501671828</v>
       </c>
       <c r="N6">
-        <v>1.011359428164429</v>
+        <v>1.029834090940244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9890230915352543</v>
+        <v>1.023521805520994</v>
       </c>
       <c r="D7">
-        <v>1.008339848591513</v>
+        <v>1.027875050623741</v>
       </c>
       <c r="E7">
-        <v>0.9964709830745984</v>
+        <v>1.027055682641579</v>
       </c>
       <c r="F7">
-        <v>0.9694075595370258</v>
+        <v>1.023015119948415</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037379292778886</v>
+        <v>1.028410523759031</v>
       </c>
       <c r="J7">
-        <v>1.008705622390868</v>
+        <v>1.028111958155284</v>
       </c>
       <c r="K7">
-        <v>1.018335682357887</v>
+        <v>1.030379040513347</v>
       </c>
       <c r="L7">
-        <v>1.006609171804311</v>
+        <v>1.029561781306526</v>
       </c>
       <c r="M7">
-        <v>0.9798866601868321</v>
+        <v>1.02553167096657</v>
       </c>
       <c r="N7">
-        <v>1.010138100074815</v>
+        <v>1.029571995061955</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9812877957645856</v>
+        <v>1.021947195134762</v>
       </c>
       <c r="D8">
-        <v>1.002718694490316</v>
+        <v>1.026720077055722</v>
       </c>
       <c r="E8">
-        <v>0.989425145595747</v>
+        <v>1.025549493924741</v>
       </c>
       <c r="F8">
-        <v>0.9579899151709825</v>
+        <v>1.020597151087282</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035637379989583</v>
+        <v>1.028157832734356</v>
       </c>
       <c r="J8">
-        <v>1.003453083090678</v>
+        <v>1.02701528194199</v>
       </c>
       <c r="K8">
-        <v>1.013861964840352</v>
+        <v>1.029477780886488</v>
       </c>
       <c r="L8">
-        <v>1.00075029132382</v>
+        <v>1.028310537470583</v>
       </c>
       <c r="M8">
-        <v>0.9697707017869702</v>
+        <v>1.023372415940752</v>
       </c>
       <c r="N8">
-        <v>1.004878101566344</v>
+        <v>1.028473761442647</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9667646165757189</v>
+        <v>1.019165635362018</v>
       </c>
       <c r="D9">
-        <v>0.9921830933454946</v>
+        <v>1.02467712513055</v>
       </c>
       <c r="E9">
-        <v>0.9762439394986528</v>
+        <v>1.022891469864513</v>
       </c>
       <c r="F9">
-        <v>0.9363969803255738</v>
+        <v>1.016326789294316</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032264921805651</v>
+        <v>1.027698900929648</v>
       </c>
       <c r="J9">
-        <v>0.9935481723233608</v>
+        <v>1.025072390231494</v>
       </c>
       <c r="K9">
-        <v>1.005404280476888</v>
+        <v>1.027877087460865</v>
       </c>
       <c r="L9">
-        <v>0.9897345715951669</v>
+        <v>1.02609741080653</v>
       </c>
       <c r="M9">
-        <v>0.950613768311894</v>
+        <v>1.019554908111893</v>
       </c>
       <c r="N9">
-        <v>0.9949591246896282</v>
+        <v>1.026528110603069</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9563787381207497</v>
+        <v>1.017306377644079</v>
       </c>
       <c r="D10">
-        <v>0.9846687230214021</v>
+        <v>1.023309827395275</v>
       </c>
       <c r="E10">
-        <v>0.9668537926312162</v>
+        <v>1.021116609445234</v>
       </c>
       <c r="F10">
-        <v>0.9208001657382207</v>
+        <v>1.013472702899782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029787475773731</v>
+        <v>1.027383722235323</v>
       </c>
       <c r="J10">
-        <v>0.9864367168258423</v>
+        <v>1.023769953965848</v>
       </c>
       <c r="K10">
-        <v>0.9993204178656754</v>
+        <v>1.02680138773708</v>
       </c>
       <c r="L10">
-        <v>0.9818484613529884</v>
+        <v>1.024616241269252</v>
       </c>
       <c r="M10">
-        <v>0.9367634911195444</v>
+        <v>1.017000768079592</v>
       </c>
       <c r="N10">
-        <v>0.987837570109608</v>
+        <v>1.025223824728534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9516875030469706</v>
+        <v>1.016500083846119</v>
       </c>
       <c r="D11">
-        <v>0.9812811020590515</v>
+        <v>1.022716479371972</v>
       </c>
       <c r="E11">
-        <v>0.9626217984451214</v>
+        <v>1.020347354358444</v>
       </c>
       <c r="F11">
-        <v>0.9137048901453321</v>
+        <v>1.012234986632489</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028653700790061</v>
+        <v>1.027245048871187</v>
       </c>
       <c r="J11">
-        <v>0.9832180322019605</v>
+        <v>1.023204242631317</v>
       </c>
       <c r="K11">
-        <v>0.996564879113241</v>
+        <v>1.026333535939186</v>
       </c>
       <c r="L11">
-        <v>0.9782848005415866</v>
+        <v>1.023973471620808</v>
       </c>
       <c r="M11">
-        <v>0.9304609028977012</v>
+        <v>1.015892486272606</v>
       </c>
       <c r="N11">
-        <v>0.9846143145843719</v>
+        <v>1.02465731001902</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9499131361855441</v>
+        <v>1.016200401763875</v>
       </c>
       <c r="D12">
-        <v>0.9800009607575176</v>
+        <v>1.0224958857279</v>
       </c>
       <c r="E12">
-        <v>0.9610226379559873</v>
+        <v>1.020061505186056</v>
       </c>
       <c r="F12">
-        <v>0.9110123145814732</v>
+        <v>1.011774947486508</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028222739705653</v>
+        <v>1.027193208149032</v>
       </c>
       <c r="J12">
-        <v>0.9819996678404788</v>
+        <v>1.022993846103624</v>
       </c>
       <c r="K12">
-        <v>0.9955216094641971</v>
+        <v>1.02615944184356</v>
       </c>
       <c r="L12">
-        <v>0.9769367214598881</v>
+        <v>1.023734502226764</v>
       </c>
       <c r="M12">
-        <v>0.9280689928761898</v>
+        <v>1.015480459670389</v>
       </c>
       <c r="N12">
-        <v>0.9833942200057485</v>
+        <v>1.024446614704125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9502952312703503</v>
+        <v>1.016264693204942</v>
       </c>
       <c r="D13">
-        <v>0.9802765732602853</v>
+        <v>1.022543212804886</v>
       </c>
       <c r="E13">
-        <v>0.9613669343532005</v>
+        <v>1.0201228260097</v>
       </c>
       <c r="F13">
-        <v>0.9115925656316028</v>
+        <v>1.011873641076299</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028315638529293</v>
+        <v>1.02720434316469</v>
       </c>
       <c r="J13">
-        <v>0.9822620756148743</v>
+        <v>1.023038988974317</v>
       </c>
       <c r="K13">
-        <v>0.9957463144884767</v>
+        <v>1.026196799828921</v>
       </c>
       <c r="L13">
-        <v>0.9772270272158273</v>
+        <v>1.023785771814102</v>
       </c>
       <c r="M13">
-        <v>0.9285844549157087</v>
+        <v>1.015568857330613</v>
       </c>
       <c r="N13">
-        <v>0.9836570004292823</v>
+        <v>1.024491821682872</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.951541499452227</v>
+        <v>1.016475315909108</v>
       </c>
       <c r="D14">
-        <v>0.9811757412116684</v>
+        <v>1.02269824908211</v>
       </c>
       <c r="E14">
-        <v>0.9624901806068508</v>
+        <v>1.020323728317493</v>
       </c>
       <c r="F14">
-        <v>0.9134835216047131</v>
+        <v>1.012196965777625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028618281991739</v>
+        <v>1.027240770463772</v>
       </c>
       <c r="J14">
-        <v>0.9831177986352351</v>
+        <v>1.023186856638773</v>
       </c>
       <c r="K14">
-        <v>0.9964790544043821</v>
+        <v>1.026319151669391</v>
       </c>
       <c r="L14">
-        <v>0.9781738777258648</v>
+        <v>1.023953722767014</v>
       </c>
       <c r="M14">
-        <v>0.9302642556440656</v>
+        <v>1.015858435470055</v>
       </c>
       <c r="N14">
-        <v>0.9845139386744848</v>
+        <v>1.024639899336373</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9523050621590615</v>
+        <v>1.016605062360325</v>
       </c>
       <c r="D15">
-        <v>0.9817268005833393</v>
+        <v>1.022793745764756</v>
       </c>
       <c r="E15">
-        <v>0.9631785711655759</v>
+        <v>1.020447495686334</v>
       </c>
       <c r="F15">
-        <v>0.9146408526745924</v>
+        <v>1.012396137123163</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028803427318861</v>
+        <v>1.027263170602699</v>
       </c>
       <c r="J15">
-        <v>0.9836419564304503</v>
+        <v>1.023277927412693</v>
       </c>
       <c r="K15">
-        <v>0.9969278545820242</v>
+        <v>1.026394495108303</v>
       </c>
       <c r="L15">
-        <v>0.978753968936135</v>
+        <v>1.024057174139837</v>
       </c>
       <c r="M15">
-        <v>0.9312923367076658</v>
+        <v>1.016036805855596</v>
       </c>
       <c r="N15">
-        <v>0.9850388408338907</v>
+        <v>1.024731099441237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9566857704449808</v>
+        <v>1.017359862521946</v>
       </c>
       <c r="D16">
-        <v>0.9848905865396775</v>
+        <v>1.023349178358322</v>
       </c>
       <c r="E16">
-        <v>0.9671309716784627</v>
+        <v>1.021167646668684</v>
       </c>
       <c r="F16">
-        <v>0.9212633859753017</v>
+        <v>1.013554805286523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029861380724652</v>
+        <v>1.027392879124819</v>
       </c>
       <c r="J16">
-        <v>0.9866472404896505</v>
+        <v>1.023807461236221</v>
       </c>
       <c r="K16">
-        <v>0.9995006143518931</v>
+        <v>1.026832393754919</v>
       </c>
       <c r="L16">
-        <v>0.9820816671714667</v>
+        <v>1.024658869672815</v>
       </c>
       <c r="M16">
-        <v>0.937174932294728</v>
+        <v>1.017074271100631</v>
       </c>
       <c r="N16">
-        <v>0.988048392741166</v>
+        <v>1.025261385263533</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.959379930360447</v>
+        <v>1.017832997836075</v>
       </c>
       <c r="D17">
-        <v>0.9868381653297964</v>
+        <v>1.02369723692485</v>
       </c>
       <c r="E17">
-        <v>0.9695642535865435</v>
+        <v>1.021619180356294</v>
       </c>
       <c r="F17">
-        <v>0.9253222486587337</v>
+        <v>1.014281094520243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030508230571342</v>
+        <v>1.027473652512086</v>
       </c>
       <c r="J17">
-        <v>0.9884938219281112</v>
+        <v>1.024139153366864</v>
       </c>
       <c r="K17">
-        <v>1.001080973085636</v>
+        <v>1.027106520856449</v>
       </c>
       <c r="L17">
-        <v>0.9841278404095125</v>
+        <v>1.025035916308233</v>
       </c>
       <c r="M17">
-        <v>0.9407798982202266</v>
+        <v>1.017724415101677</v>
       </c>
       <c r="N17">
-        <v>0.9898975965370755</v>
+        <v>1.025593548435047</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9609328603016073</v>
+        <v>1.018108852000432</v>
       </c>
       <c r="D18">
-        <v>0.9879613677732877</v>
+        <v>1.023900128433563</v>
       </c>
       <c r="E18">
-        <v>0.9709676973817259</v>
+        <v>1.021882482275929</v>
       </c>
       <c r="F18">
-        <v>0.9276571703042706</v>
+        <v>1.014704546496055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030879687932819</v>
+        <v>1.027520554161131</v>
       </c>
       <c r="J18">
-        <v>0.9895575918180965</v>
+        <v>1.024332455376692</v>
       </c>
       <c r="K18">
-        <v>1.001991190501888</v>
+        <v>1.027266215326748</v>
       </c>
       <c r="L18">
-        <v>0.9853071181785147</v>
+        <v>1.025255705109996</v>
       </c>
       <c r="M18">
-        <v>0.9428535271087133</v>
+        <v>1.018103409876865</v>
       </c>
       <c r="N18">
-        <v>0.9909628771023206</v>
+        <v>1.025787124955902</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9614593022660339</v>
+        <v>1.018202891332944</v>
       </c>
       <c r="D19">
-        <v>0.9883422304679146</v>
+        <v>1.0239692880425</v>
       </c>
       <c r="E19">
-        <v>0.971443611486854</v>
+        <v>1.021972249668697</v>
       </c>
       <c r="F19">
-        <v>0.9284479583545784</v>
+        <v>1.014848902527553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031005373474772</v>
+        <v>1.027536510462235</v>
       </c>
       <c r="J19">
-        <v>0.9899181048583797</v>
+        <v>1.024398337910228</v>
       </c>
       <c r="K19">
-        <v>1.002299630429865</v>
+        <v>1.027320633299444</v>
       </c>
       <c r="L19">
-        <v>0.9857068659763663</v>
+        <v>1.025330624436169</v>
       </c>
       <c r="M19">
-        <v>0.9435557866134118</v>
+        <v>1.018232599815175</v>
       </c>
       <c r="N19">
-        <v>0.9913239021124721</v>
+        <v>1.025853101050192</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9590928071515445</v>
+        <v>1.017782247101731</v>
       </c>
       <c r="D20">
-        <v>0.986630542922476</v>
+        <v>1.023659906500768</v>
       </c>
       <c r="E20">
-        <v>0.9693048401996313</v>
+        <v>1.021570742340366</v>
       </c>
       <c r="F20">
-        <v>0.9248901759631262</v>
+        <v>1.01420318930705</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030439438164657</v>
+        <v>1.027465008237561</v>
       </c>
       <c r="J20">
-        <v>0.9882970905782095</v>
+        <v>1.024103583385342</v>
       </c>
       <c r="K20">
-        <v>1.000912623666371</v>
+        <v>1.027077130239813</v>
       </c>
       <c r="L20">
-        <v>0.9839097899065723</v>
+        <v>1.02499547688068</v>
       </c>
       <c r="M20">
-        <v>0.9403961616666148</v>
+        <v>1.017654683984797</v>
       </c>
       <c r="N20">
-        <v>0.9897005858060913</v>
+        <v>1.025557927940072</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9511754065557663</v>
+        <v>1.016413298020266</v>
       </c>
       <c r="D21">
-        <v>0.9809115761633191</v>
+        <v>1.02265260024306</v>
       </c>
       <c r="E21">
-        <v>0.9621601834411232</v>
+        <v>1.020264570763629</v>
       </c>
       <c r="F21">
-        <v>0.9129283081972799</v>
+        <v>1.012101763002226</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028529438025361</v>
+        <v>1.0272300526838</v>
       </c>
       <c r="J21">
-        <v>0.9828664551892681</v>
+        <v>1.023143320672861</v>
       </c>
       <c r="K21">
-        <v>0.9962638390243875</v>
+        <v>1.026283130766257</v>
       </c>
       <c r="L21">
-        <v>0.9778957442075239</v>
+        <v>1.023904271394071</v>
       </c>
       <c r="M21">
-        <v>0.9297710436348877</v>
+        <v>1.015773172002556</v>
       </c>
       <c r="N21">
-        <v>0.9842622382919948</v>
+        <v>1.024596301544396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9460116467129075</v>
+        <v>1.015551491367961</v>
       </c>
       <c r="D22">
-        <v>0.9771885187869586</v>
+        <v>1.022018121277493</v>
       </c>
       <c r="E22">
-        <v>0.9575092721467926</v>
+        <v>1.019442669650263</v>
       </c>
       <c r="F22">
-        <v>0.9050736679407095</v>
+        <v>1.010778792024044</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0272712978784</v>
+        <v>1.027080409778545</v>
       </c>
       <c r="J22">
-        <v>0.9793189595525081</v>
+        <v>1.0225380237471</v>
       </c>
       <c r="K22">
-        <v>0.9932258370700604</v>
+        <v>1.025782098933387</v>
       </c>
       <c r="L22">
-        <v>0.9739722387669868</v>
+        <v>1.023216934856809</v>
       </c>
       <c r="M22">
-        <v>0.9227933650539003</v>
+        <v>1.014588093576365</v>
       </c>
       <c r="N22">
-        <v>0.9807097048045275</v>
+        <v>1.023990145027573</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9487676529024197</v>
+        <v>1.016008456738315</v>
       </c>
       <c r="D23">
-        <v>0.9791748856839253</v>
+        <v>1.022354580040661</v>
       </c>
       <c r="E23">
-        <v>0.959990699182948</v>
+        <v>1.019878438839293</v>
       </c>
       <c r="F23">
-        <v>0.9092713519593203</v>
+        <v>1.01148029181217</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027943931932791</v>
+        <v>1.027159920328494</v>
       </c>
       <c r="J23">
-        <v>0.981212855261387</v>
+        <v>1.022859050425892</v>
       </c>
       <c r="K23">
-        <v>0.9948478200461948</v>
+        <v>1.026047878101897</v>
       </c>
       <c r="L23">
-        <v>0.9760663878591617</v>
+        <v>1.023581424934446</v>
       </c>
       <c r="M23">
-        <v>0.9265224095860795</v>
+        <v>1.015216529055328</v>
       </c>
       <c r="N23">
-        <v>0.9826062900625459</v>
+        <v>1.02431162760107</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9592226028298868</v>
+        <v>1.017805179537282</v>
       </c>
       <c r="D24">
-        <v>0.9867243979412683</v>
+        <v>1.023676774899179</v>
       </c>
       <c r="E24">
-        <v>0.9694221067516042</v>
+        <v>1.021592629610964</v>
       </c>
       <c r="F24">
-        <v>0.9250855111648331</v>
+        <v>1.014238391875079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030470540488337</v>
+        <v>1.027468914868453</v>
       </c>
       <c r="J24">
-        <v>0.9883860260009026</v>
+        <v>1.024119656448996</v>
       </c>
       <c r="K24">
-        <v>1.000988729192126</v>
+        <v>1.027090411209816</v>
       </c>
       <c r="L24">
-        <v>0.9840083613406277</v>
+        <v>1.025013750137663</v>
       </c>
       <c r="M24">
-        <v>0.9405696452169842</v>
+        <v>1.017686193163495</v>
       </c>
       <c r="N24">
-        <v>0.9897896475272857</v>
+        <v>1.02557402382932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9706349445258815</v>
+        <v>1.019885577824228</v>
       </c>
       <c r="D25">
-        <v>0.9949879296632909</v>
+        <v>1.025206207304648</v>
       </c>
       <c r="E25">
-        <v>0.9797507747095714</v>
+        <v>1.023579119069293</v>
       </c>
       <c r="F25">
-        <v>0.9421739381639495</v>
+        <v>1.017431991640684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033175131174829</v>
+        <v>1.027819168555196</v>
       </c>
       <c r="J25">
-        <v>0.9961926485647096</v>
+        <v>1.025575925876042</v>
       </c>
       <c r="K25">
-        <v>1.007664553059257</v>
+        <v>1.028292406342592</v>
       </c>
       <c r="L25">
-        <v>0.9926717835531217</v>
+        <v>1.026670556996481</v>
       </c>
       <c r="M25">
-        <v>0.9557415631128281</v>
+        <v>1.020543387769453</v>
       </c>
       <c r="N25">
-        <v>0.9976073563905654</v>
+        <v>1.027032361325988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_228/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021541367123396</v>
+        <v>0.9792392626300961</v>
       </c>
       <c r="D2">
-        <v>1.026422218762465</v>
+        <v>1.001231006015693</v>
       </c>
       <c r="E2">
-        <v>1.025161480254848</v>
+        <v>0.9875622135271407</v>
       </c>
       <c r="F2">
-        <v>1.019974042732294</v>
+        <v>0.9549573928610108</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028091854196729</v>
+        <v>1.035169216941636</v>
       </c>
       <c r="J2">
-        <v>1.026732252662637</v>
+        <v>1.002059165048621</v>
       </c>
       <c r="K2">
-        <v>1.029244911995427</v>
+        <v>1.012673217569541</v>
       </c>
       <c r="L2">
-        <v>1.027987861329245</v>
+        <v>0.9991975898864708</v>
       </c>
       <c r="M2">
-        <v>1.022815702210854</v>
+        <v>0.9670820760658704</v>
       </c>
       <c r="N2">
-        <v>1.028190330229254</v>
+        <v>1.003482204000783</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0227416582334</v>
+        <v>0.9852322270040451</v>
       </c>
       <c r="D3">
-        <v>1.027302958779511</v>
+        <v>1.005584421638179</v>
       </c>
       <c r="E3">
-        <v>1.026309295284918</v>
+        <v>0.9930157291917139</v>
       </c>
       <c r="F3">
-        <v>1.021817059437145</v>
+        <v>0.9638183200478401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028285991724038</v>
+        <v>1.036530951214985</v>
       </c>
       <c r="J3">
-        <v>1.027568902122241</v>
+        <v>1.00613373563227</v>
       </c>
       <c r="K3">
-        <v>1.029932964539345</v>
+        <v>1.016146343945659</v>
       </c>
       <c r="L3">
-        <v>1.02894199585776</v>
+        <v>1.003738762031426</v>
       </c>
       <c r="M3">
-        <v>1.024462013769011</v>
+        <v>0.9749360866543145</v>
       </c>
       <c r="N3">
-        <v>1.029028167827055</v>
+        <v>1.007562560942021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023517449535878</v>
+        <v>0.9890021472268773</v>
       </c>
       <c r="D4">
-        <v>1.027871857132009</v>
+        <v>1.008324622075657</v>
       </c>
       <c r="E4">
-        <v>1.027051514385379</v>
+        <v>0.9964518807846775</v>
       </c>
       <c r="F4">
-        <v>1.023008430115822</v>
+        <v>0.9693767101516727</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028409832110904</v>
+        <v>1.037374635373446</v>
       </c>
       <c r="J4">
-        <v>1.02810892762239</v>
+        <v>1.008691425346164</v>
       </c>
       <c r="K4">
-        <v>1.03037655236141</v>
+        <v>1.018323603881474</v>
       </c>
       <c r="L4">
-        <v>1.029558321532134</v>
+        <v>1.006593317955727</v>
       </c>
       <c r="M4">
-        <v>1.025525699315718</v>
+        <v>0.9798593442076918</v>
       </c>
       <c r="N4">
-        <v>1.029568960225357</v>
+        <v>1.010123882868679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02384338607786</v>
+        <v>0.9905625132634404</v>
       </c>
       <c r="D5">
-        <v>1.028110784678137</v>
+        <v>1.009459087372092</v>
       </c>
       <c r="E5">
-        <v>1.027363428223793</v>
+        <v>0.997875391097377</v>
       </c>
       <c r="F5">
-        <v>1.023509010408098</v>
+        <v>0.971674118662341</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028461469200465</v>
+        <v>1.037720680141867</v>
       </c>
       <c r="J5">
-        <v>1.028335635680955</v>
+        <v>1.009748721565999</v>
       </c>
       <c r="K5">
-        <v>1.030562648853155</v>
+        <v>1.019222903410237</v>
       </c>
       <c r="L5">
-        <v>1.029817173258698</v>
+        <v>1.007774280255934</v>
       </c>
       <c r="M5">
-        <v>1.025972502796357</v>
+        <v>0.9818933457709501</v>
       </c>
       <c r="N5">
-        <v>1.029795990235368</v>
+        <v>1.01118268057042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023898100283504</v>
+        <v>0.9908231050999841</v>
       </c>
       <c r="D6">
-        <v>1.028150887803256</v>
+        <v>1.009648565727968</v>
       </c>
       <c r="E6">
-        <v>1.027415793274114</v>
+        <v>0.9981132016753025</v>
       </c>
       <c r="F6">
-        <v>1.023593044430947</v>
+        <v>0.9720576283015364</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028470114366826</v>
+        <v>1.037778284892845</v>
       </c>
       <c r="J6">
-        <v>1.028373682355189</v>
+        <v>1.009925218514099</v>
       </c>
       <c r="K6">
-        <v>1.030593872587168</v>
+        <v>1.019372981210971</v>
       </c>
       <c r="L6">
-        <v>1.029860620934364</v>
+        <v>1.007971476692102</v>
       </c>
       <c r="M6">
-        <v>1.026047501671828</v>
+        <v>0.9822328306114146</v>
       </c>
       <c r="N6">
-        <v>1.029834090940244</v>
+        <v>1.01135942816443</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023521805520994</v>
+        <v>0.9890230915352554</v>
       </c>
       <c r="D7">
-        <v>1.027875050623741</v>
+        <v>1.008339848591514</v>
       </c>
       <c r="E7">
-        <v>1.027055682641579</v>
+        <v>0.9964709830745994</v>
       </c>
       <c r="F7">
-        <v>1.023015119948415</v>
+        <v>0.9694075595370268</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028410523759031</v>
+        <v>1.037379292778887</v>
       </c>
       <c r="J7">
-        <v>1.028111958155284</v>
+        <v>1.008705622390869</v>
       </c>
       <c r="K7">
-        <v>1.030379040513347</v>
+        <v>1.018335682357888</v>
       </c>
       <c r="L7">
-        <v>1.029561781306526</v>
+        <v>1.006609171804312</v>
       </c>
       <c r="M7">
-        <v>1.02553167096657</v>
+        <v>0.9798866601868332</v>
       </c>
       <c r="N7">
-        <v>1.029571995061955</v>
+        <v>1.010138100074816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021947195134762</v>
+        <v>0.9812877957645857</v>
       </c>
       <c r="D8">
-        <v>1.026720077055722</v>
+        <v>1.002718694490316</v>
       </c>
       <c r="E8">
-        <v>1.025549493924741</v>
+        <v>0.9894251455957471</v>
       </c>
       <c r="F8">
-        <v>1.020597151087282</v>
+        <v>0.9579899151709823</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028157832734356</v>
+        <v>1.035637379989583</v>
       </c>
       <c r="J8">
-        <v>1.02701528194199</v>
+        <v>1.003453083090678</v>
       </c>
       <c r="K8">
-        <v>1.029477780886488</v>
+        <v>1.013861964840352</v>
       </c>
       <c r="L8">
-        <v>1.028310537470583</v>
+        <v>1.00075029132382</v>
       </c>
       <c r="M8">
-        <v>1.023372415940752</v>
+        <v>0.96977070178697</v>
       </c>
       <c r="N8">
-        <v>1.028473761442647</v>
+        <v>1.004878101566344</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019165635362018</v>
+        <v>0.9667646165757182</v>
       </c>
       <c r="D9">
-        <v>1.02467712513055</v>
+        <v>0.9921830933454941</v>
       </c>
       <c r="E9">
-        <v>1.022891469864513</v>
+        <v>0.9762439394986523</v>
       </c>
       <c r="F9">
-        <v>1.016326789294316</v>
+        <v>0.9363969803255738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027698900929648</v>
+        <v>1.03226492180565</v>
       </c>
       <c r="J9">
-        <v>1.025072390231494</v>
+        <v>0.9935481723233603</v>
       </c>
       <c r="K9">
-        <v>1.027877087460865</v>
+        <v>1.005404280476887</v>
       </c>
       <c r="L9">
-        <v>1.02609741080653</v>
+        <v>0.9897345715951662</v>
       </c>
       <c r="M9">
-        <v>1.019554908111893</v>
+        <v>0.9506137683118939</v>
       </c>
       <c r="N9">
-        <v>1.026528110603069</v>
+        <v>0.9949591246896277</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017306377644079</v>
+        <v>0.9563787381207511</v>
       </c>
       <c r="D10">
-        <v>1.023309827395275</v>
+        <v>0.9846687230214032</v>
       </c>
       <c r="E10">
-        <v>1.021116609445234</v>
+        <v>0.9668537926312174</v>
       </c>
       <c r="F10">
-        <v>1.013472702899782</v>
+        <v>0.9208001657382225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027383722235323</v>
+        <v>1.029787475773732</v>
       </c>
       <c r="J10">
-        <v>1.023769953965848</v>
+        <v>0.9864367168258437</v>
       </c>
       <c r="K10">
-        <v>1.02680138773708</v>
+        <v>0.9993204178656764</v>
       </c>
       <c r="L10">
-        <v>1.024616241269252</v>
+        <v>0.9818484613529895</v>
       </c>
       <c r="M10">
-        <v>1.017000768079592</v>
+        <v>0.936763491119546</v>
       </c>
       <c r="N10">
-        <v>1.025223824728534</v>
+        <v>0.987837570109609</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016500083846119</v>
+        <v>0.9516875030469718</v>
       </c>
       <c r="D11">
-        <v>1.022716479371972</v>
+        <v>0.9812811020590524</v>
       </c>
       <c r="E11">
-        <v>1.020347354358444</v>
+        <v>0.9626217984451226</v>
       </c>
       <c r="F11">
-        <v>1.012234986632489</v>
+        <v>0.9137048901453331</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027245048871187</v>
+        <v>1.028653700790061</v>
       </c>
       <c r="J11">
-        <v>1.023204242631317</v>
+        <v>0.9832180322019615</v>
       </c>
       <c r="K11">
-        <v>1.026333535939186</v>
+        <v>0.9965648791132418</v>
       </c>
       <c r="L11">
-        <v>1.023973471620808</v>
+        <v>0.9782848005415878</v>
       </c>
       <c r="M11">
-        <v>1.015892486272606</v>
+        <v>0.9304609028977021</v>
       </c>
       <c r="N11">
-        <v>1.02465731001902</v>
+        <v>0.984614314584373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016200401763875</v>
+        <v>0.9499131361855432</v>
       </c>
       <c r="D12">
-        <v>1.0224958857279</v>
+        <v>0.9800009607575169</v>
       </c>
       <c r="E12">
-        <v>1.020061505186056</v>
+        <v>0.9610226379559862</v>
       </c>
       <c r="F12">
-        <v>1.011774947486508</v>
+        <v>0.9110123145814731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027193208149032</v>
+        <v>1.028222739705653</v>
       </c>
       <c r="J12">
-        <v>1.022993846103624</v>
+        <v>0.981999667840478</v>
       </c>
       <c r="K12">
-        <v>1.02615944184356</v>
+        <v>0.9955216094641965</v>
       </c>
       <c r="L12">
-        <v>1.023734502226764</v>
+        <v>0.976936721459887</v>
       </c>
       <c r="M12">
-        <v>1.015480459670389</v>
+        <v>0.9280689928761893</v>
       </c>
       <c r="N12">
-        <v>1.024446614704125</v>
+        <v>0.9833942200057474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016264693204942</v>
+        <v>0.9502952312703506</v>
       </c>
       <c r="D13">
-        <v>1.022543212804886</v>
+        <v>0.9802765732602858</v>
       </c>
       <c r="E13">
-        <v>1.0201228260097</v>
+        <v>0.9613669343532012</v>
       </c>
       <c r="F13">
-        <v>1.011873641076299</v>
+        <v>0.9115925656316031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02720434316469</v>
+        <v>1.028315638529293</v>
       </c>
       <c r="J13">
-        <v>1.023038988974317</v>
+        <v>0.9822620756148748</v>
       </c>
       <c r="K13">
-        <v>1.026196799828921</v>
+        <v>0.9957463144884773</v>
       </c>
       <c r="L13">
-        <v>1.023785771814102</v>
+        <v>0.977227027215828</v>
       </c>
       <c r="M13">
-        <v>1.015568857330613</v>
+        <v>0.928584454915709</v>
       </c>
       <c r="N13">
-        <v>1.024491821682872</v>
+        <v>0.9836570004292826</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016475315909108</v>
+        <v>0.9515414994522282</v>
       </c>
       <c r="D14">
-        <v>1.02269824908211</v>
+        <v>0.9811757412116693</v>
       </c>
       <c r="E14">
-        <v>1.020323728317493</v>
+        <v>0.962490180606852</v>
       </c>
       <c r="F14">
-        <v>1.012196965777625</v>
+        <v>0.9134835216047145</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027240770463772</v>
+        <v>1.02861828199174</v>
       </c>
       <c r="J14">
-        <v>1.023186856638773</v>
+        <v>0.9831177986352362</v>
       </c>
       <c r="K14">
-        <v>1.026319151669391</v>
+        <v>0.9964790544043828</v>
       </c>
       <c r="L14">
-        <v>1.023953722767014</v>
+        <v>0.9781738777258662</v>
       </c>
       <c r="M14">
-        <v>1.015858435470055</v>
+        <v>0.9302642556440668</v>
       </c>
       <c r="N14">
-        <v>1.024639899336373</v>
+        <v>0.9845139386744859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016605062360325</v>
+        <v>0.952305062159062</v>
       </c>
       <c r="D15">
-        <v>1.022793745764756</v>
+        <v>0.9817268005833399</v>
       </c>
       <c r="E15">
-        <v>1.020447495686334</v>
+        <v>0.9631785711655768</v>
       </c>
       <c r="F15">
-        <v>1.012396137123163</v>
+        <v>0.9146408526745929</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027263170602699</v>
+        <v>1.028803427318862</v>
       </c>
       <c r="J15">
-        <v>1.023277927412693</v>
+        <v>0.9836419564304509</v>
       </c>
       <c r="K15">
-        <v>1.026394495108303</v>
+        <v>0.9969278545820248</v>
       </c>
       <c r="L15">
-        <v>1.024057174139837</v>
+        <v>0.978753968936136</v>
       </c>
       <c r="M15">
-        <v>1.016036805855596</v>
+        <v>0.9312923367076662</v>
       </c>
       <c r="N15">
-        <v>1.024731099441237</v>
+        <v>0.9850388408338914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017359862521946</v>
+        <v>0.956685770444982</v>
       </c>
       <c r="D16">
-        <v>1.023349178358322</v>
+        <v>0.9848905865396786</v>
       </c>
       <c r="E16">
-        <v>1.021167646668684</v>
+        <v>0.9671309716784641</v>
       </c>
       <c r="F16">
-        <v>1.013554805286523</v>
+        <v>0.9212633859753033</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027392879124819</v>
+        <v>1.029861380724653</v>
       </c>
       <c r="J16">
-        <v>1.023807461236221</v>
+        <v>0.9866472404896516</v>
       </c>
       <c r="K16">
-        <v>1.026832393754919</v>
+        <v>0.9995006143518941</v>
       </c>
       <c r="L16">
-        <v>1.024658869672815</v>
+        <v>0.9820816671714679</v>
       </c>
       <c r="M16">
-        <v>1.017074271100631</v>
+        <v>0.9371749322947297</v>
       </c>
       <c r="N16">
-        <v>1.025261385263533</v>
+        <v>0.9880483927411673</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017832997836075</v>
+        <v>0.959379930360447</v>
       </c>
       <c r="D17">
-        <v>1.02369723692485</v>
+        <v>0.9868381653297962</v>
       </c>
       <c r="E17">
-        <v>1.021619180356294</v>
+        <v>0.9695642535865435</v>
       </c>
       <c r="F17">
-        <v>1.014281094520243</v>
+        <v>0.9253222486587332</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027473652512086</v>
+        <v>1.030508230571342</v>
       </c>
       <c r="J17">
-        <v>1.024139153366864</v>
+        <v>0.988493821928111</v>
       </c>
       <c r="K17">
-        <v>1.027106520856449</v>
+        <v>1.001080973085636</v>
       </c>
       <c r="L17">
-        <v>1.025035916308233</v>
+        <v>0.9841278404095126</v>
       </c>
       <c r="M17">
-        <v>1.017724415101677</v>
+        <v>0.9407798982202263</v>
       </c>
       <c r="N17">
-        <v>1.025593548435047</v>
+        <v>0.9898975965370752</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018108852000432</v>
+        <v>0.9609328603016076</v>
       </c>
       <c r="D18">
-        <v>1.023900128433563</v>
+        <v>0.9879613677732878</v>
       </c>
       <c r="E18">
-        <v>1.021882482275929</v>
+        <v>0.9709676973817264</v>
       </c>
       <c r="F18">
-        <v>1.014704546496055</v>
+        <v>0.9276571703042703</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027520554161131</v>
+        <v>1.030879687932819</v>
       </c>
       <c r="J18">
-        <v>1.024332455376692</v>
+        <v>0.9895575918180968</v>
       </c>
       <c r="K18">
-        <v>1.027266215326748</v>
+        <v>1.001991190501888</v>
       </c>
       <c r="L18">
-        <v>1.025255705109996</v>
+        <v>0.985307118178515</v>
       </c>
       <c r="M18">
-        <v>1.018103409876865</v>
+        <v>0.9428535271087132</v>
       </c>
       <c r="N18">
-        <v>1.025787124955902</v>
+        <v>0.9909628771023207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018202891332944</v>
+        <v>0.9614593022660334</v>
       </c>
       <c r="D19">
-        <v>1.0239692880425</v>
+        <v>0.9883422304679144</v>
       </c>
       <c r="E19">
-        <v>1.021972249668697</v>
+        <v>0.9714436114868538</v>
       </c>
       <c r="F19">
-        <v>1.014848902527553</v>
+        <v>0.9284479583545779</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027536510462235</v>
+        <v>1.031005373474772</v>
       </c>
       <c r="J19">
-        <v>1.024398337910228</v>
+        <v>0.9899181048583796</v>
       </c>
       <c r="K19">
-        <v>1.027320633299444</v>
+        <v>1.002299630429865</v>
       </c>
       <c r="L19">
-        <v>1.025330624436169</v>
+        <v>0.985706865976366</v>
       </c>
       <c r="M19">
-        <v>1.018232599815175</v>
+        <v>0.9435557866134114</v>
       </c>
       <c r="N19">
-        <v>1.025853101050192</v>
+        <v>0.991323902112472</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017782247101731</v>
+        <v>0.959092807151545</v>
       </c>
       <c r="D20">
-        <v>1.023659906500768</v>
+        <v>0.9866305429224768</v>
       </c>
       <c r="E20">
-        <v>1.021570742340366</v>
+        <v>0.9693048401996319</v>
       </c>
       <c r="F20">
-        <v>1.01420318930705</v>
+        <v>0.9248901759631269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027465008237561</v>
+        <v>1.030439438164658</v>
       </c>
       <c r="J20">
-        <v>1.024103583385342</v>
+        <v>0.98829709057821</v>
       </c>
       <c r="K20">
-        <v>1.027077130239813</v>
+        <v>1.000912623666372</v>
       </c>
       <c r="L20">
-        <v>1.02499547688068</v>
+        <v>0.9839097899065731</v>
       </c>
       <c r="M20">
-        <v>1.017654683984797</v>
+        <v>0.9403961616666155</v>
       </c>
       <c r="N20">
-        <v>1.025557927940072</v>
+        <v>0.9897005858060919</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016413298020266</v>
+        <v>0.9511754065557673</v>
       </c>
       <c r="D21">
-        <v>1.02265260024306</v>
+        <v>0.9809115761633206</v>
       </c>
       <c r="E21">
-        <v>1.020264570763629</v>
+        <v>0.9621601834411245</v>
       </c>
       <c r="F21">
-        <v>1.012101763002226</v>
+        <v>0.9129283081972808</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0272300526838</v>
+        <v>1.028529438025361</v>
       </c>
       <c r="J21">
-        <v>1.023143320672861</v>
+        <v>0.9828664551892693</v>
       </c>
       <c r="K21">
-        <v>1.026283130766257</v>
+        <v>0.9962638390243886</v>
       </c>
       <c r="L21">
-        <v>1.023904271394071</v>
+        <v>0.977895744207525</v>
       </c>
       <c r="M21">
-        <v>1.015773172002556</v>
+        <v>0.9297710436348889</v>
       </c>
       <c r="N21">
-        <v>1.024596301544396</v>
+        <v>0.9842622382919961</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015551491367961</v>
+        <v>0.946011646712908</v>
       </c>
       <c r="D22">
-        <v>1.022018121277493</v>
+        <v>0.9771885187869587</v>
       </c>
       <c r="E22">
-        <v>1.019442669650263</v>
+        <v>0.9575092721467932</v>
       </c>
       <c r="F22">
-        <v>1.010778792024044</v>
+        <v>0.9050736679407103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027080409778545</v>
+        <v>1.0272712978784</v>
       </c>
       <c r="J22">
-        <v>1.0225380237471</v>
+        <v>0.9793189595525086</v>
       </c>
       <c r="K22">
-        <v>1.025782098933387</v>
+        <v>0.9932258370700608</v>
       </c>
       <c r="L22">
-        <v>1.023216934856809</v>
+        <v>0.9739722387669874</v>
       </c>
       <c r="M22">
-        <v>1.014588093576365</v>
+        <v>0.922793365053901</v>
       </c>
       <c r="N22">
-        <v>1.023990145027573</v>
+        <v>0.9807097048045279</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016008456738315</v>
+        <v>0.9487676529024199</v>
       </c>
       <c r="D23">
-        <v>1.022354580040661</v>
+        <v>0.9791748856839252</v>
       </c>
       <c r="E23">
-        <v>1.019878438839293</v>
+        <v>0.9599906991829479</v>
       </c>
       <c r="F23">
-        <v>1.01148029181217</v>
+        <v>0.90927135195932</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027159920328494</v>
+        <v>1.027943931932791</v>
       </c>
       <c r="J23">
-        <v>1.022859050425892</v>
+        <v>0.9812128552613869</v>
       </c>
       <c r="K23">
-        <v>1.026047878101897</v>
+        <v>0.9948478200461947</v>
       </c>
       <c r="L23">
-        <v>1.023581424934446</v>
+        <v>0.9760663878591614</v>
       </c>
       <c r="M23">
-        <v>1.015216529055328</v>
+        <v>0.9265224095860792</v>
       </c>
       <c r="N23">
-        <v>1.02431162760107</v>
+        <v>0.9826062900625461</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017805179537282</v>
+        <v>0.9592226028298869</v>
       </c>
       <c r="D24">
-        <v>1.023676774899179</v>
+        <v>0.9867243979412685</v>
       </c>
       <c r="E24">
-        <v>1.021592629610964</v>
+        <v>0.9694221067516048</v>
       </c>
       <c r="F24">
-        <v>1.014238391875079</v>
+        <v>0.9250855111648325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027468914868453</v>
+        <v>1.030470540488337</v>
       </c>
       <c r="J24">
-        <v>1.024119656448996</v>
+        <v>0.988386026000903</v>
       </c>
       <c r="K24">
-        <v>1.027090411209816</v>
+        <v>1.000988729192127</v>
       </c>
       <c r="L24">
-        <v>1.025013750137663</v>
+        <v>0.9840083613406282</v>
       </c>
       <c r="M24">
-        <v>1.017686193163495</v>
+        <v>0.9405696452169837</v>
       </c>
       <c r="N24">
-        <v>1.02557402382932</v>
+        <v>0.989789647527286</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019885577824228</v>
+        <v>0.9706349445258822</v>
       </c>
       <c r="D25">
-        <v>1.025206207304648</v>
+        <v>0.9949879296632913</v>
       </c>
       <c r="E25">
-        <v>1.023579119069293</v>
+        <v>0.9797507747095719</v>
       </c>
       <c r="F25">
-        <v>1.017431991640684</v>
+        <v>0.9421739381639507</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027819168555196</v>
+        <v>1.033175131174829</v>
       </c>
       <c r="J25">
-        <v>1.025575925876042</v>
+        <v>0.9961926485647102</v>
       </c>
       <c r="K25">
-        <v>1.028292406342592</v>
+        <v>1.007664553059257</v>
       </c>
       <c r="L25">
-        <v>1.026670556996481</v>
+        <v>0.9926717835531222</v>
       </c>
       <c r="M25">
-        <v>1.020543387769453</v>
+        <v>0.9557415631128292</v>
       </c>
       <c r="N25">
-        <v>1.027032361325988</v>
+        <v>0.9976073563905661</v>
       </c>
     </row>
   </sheetData>
